--- a/class_schedules/RELIGION (RELG).xlsx
+++ b/class_schedules/RELIGION (RELG).xlsx
@@ -14,30 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>421</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="70">
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>401</t>
   </si>
   <si>
     <t>995F</t>
@@ -49,34 +61,46 @@
     <t>01</t>
   </si>
   <si>
-    <t>13109</t>
-  </si>
-  <si>
-    <t>8117</t>
-  </si>
-  <si>
-    <t>14251</t>
-  </si>
-  <si>
-    <t>14250</t>
-  </si>
-  <si>
-    <t>13108</t>
-  </si>
-  <si>
-    <t>13115</t>
-  </si>
-  <si>
-    <t>14247</t>
-  </si>
-  <si>
-    <t>13685</t>
-  </si>
-  <si>
-    <t>11779</t>
-  </si>
-  <si>
-    <t>11780</t>
+    <t>14826</t>
+  </si>
+  <si>
+    <t>14688</t>
+  </si>
+  <si>
+    <t>14690</t>
+  </si>
+  <si>
+    <t>14707</t>
+  </si>
+  <si>
+    <t>14692</t>
+  </si>
+  <si>
+    <t>14693</t>
+  </si>
+  <si>
+    <t>14684</t>
+  </si>
+  <si>
+    <t>14709</t>
+  </si>
+  <si>
+    <t>14824</t>
+  </si>
+  <si>
+    <t>14694</t>
+  </si>
+  <si>
+    <t>14695</t>
+  </si>
+  <si>
+    <t>11425</t>
+  </si>
+  <si>
+    <t>10686</t>
+  </si>
+  <si>
+    <t>10676</t>
   </si>
   <si>
     <t>4</t>
@@ -88,43 +112,58 @@
     <t>F</t>
   </si>
   <si>
-    <t>Composition for Non-Majors I TR</t>
-  </si>
-  <si>
-    <t>Composition Class I R</t>
-  </si>
-  <si>
-    <t>Instrumentation MW</t>
-  </si>
-  <si>
-    <t>Composition Seminar I T</t>
-  </si>
-  <si>
-    <t>Composition Class III R</t>
-  </si>
-  <si>
-    <t>Orchestration MW</t>
-  </si>
-  <si>
-    <t>Composition Seminar III R</t>
-  </si>
-  <si>
-    <t>Counterpoint II TR</t>
+    <t>Sacred Spaces &amp; Promised Lands</t>
+  </si>
+  <si>
+    <t>Roots Rel Mediterranean Wrld</t>
+  </si>
+  <si>
+    <t>Jerusalem: Sacred Space</t>
+  </si>
+  <si>
+    <t>Intro Relg: Buddhism in E Asia</t>
+  </si>
+  <si>
+    <t>New Testmnt/Christian Origins</t>
+  </si>
+  <si>
+    <t>A History of Sin</t>
+  </si>
+  <si>
+    <t>Religious Rituals in East Asia</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Religions of North America</t>
+  </si>
+  <si>
+    <t>Ethical Issue Death &amp; Dying</t>
+  </si>
+  <si>
+    <t>Forgiveness Islam &amp; Xian Trads</t>
+  </si>
+  <si>
+    <t>Capstone Research Methods</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
-    <t>1100-1215pm</t>
-  </si>
-  <si>
-    <t>0430-0600pm</t>
-  </si>
-  <si>
-    <t>0300-0420pm</t>
-  </si>
-  <si>
-    <t>0315-0430pm</t>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>Full</t>
@@ -133,28 +172,58 @@
     <t>Half</t>
   </si>
   <si>
-    <t>CBIB</t>
+    <t>0130-0245pm</t>
+  </si>
+  <si>
+    <t>0130-0220pm</t>
+  </si>
+  <si>
+    <t>1100-1150am</t>
+  </si>
+  <si>
+    <t>0230-0320pm</t>
+  </si>
+  <si>
+    <t>0900-0950am</t>
+  </si>
+  <si>
+    <t>0330-0420pm</t>
+  </si>
+  <si>
+    <t>1000-1050am</t>
+  </si>
+  <si>
+    <t>0930-1050am</t>
+  </si>
+  <si>
+    <t>0230-0420pm</t>
+  </si>
+  <si>
+    <t>0100-0250pm</t>
   </si>
   <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>Hartke Stephen</t>
-  </si>
-  <si>
-    <t>Ogonek Elizabeth</t>
+    <t>Rabin Shari</t>
+  </si>
+  <si>
+    <t>Barnes Corey</t>
+  </si>
+  <si>
+    <t>Chapman Cynthia</t>
+  </si>
+  <si>
+    <t>Macomber Andrew</t>
+  </si>
+  <si>
+    <t>Mahallati Mohammad</t>
+  </si>
+  <si>
+    <t>Babyak Joyce</t>
+  </si>
+  <si>
+    <t>Bachrach Emilia</t>
   </si>
 </sst>
 </file>
@@ -512,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,31 +627,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -593,31 +662,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -628,31 +697,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,31 +732,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,31 +767,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,31 +802,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -768,31 +837,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -803,31 +872,31 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -838,31 +907,31 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -873,31 +942,171 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s">
-        <v>45</v>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
